--- a/CP028/Default.xlsx
+++ b/CP028/Default.xlsx
@@ -48,6 +48,9 @@
     <t>s_Inicio_Ejecucion</t>
   </si>
   <si>
+    <t>rdiazc</t>
+  </si>
+  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -111,12 +114,15 @@
     <t>Inicio</t>
   </si>
   <si>
+    <t>e_Fecha_Reanudacion</t>
+  </si>
+  <si>
+    <t>15/07/21</t>
+  </si>
+  <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>e_Fecha_Reanudacion</t>
-  </si>
-  <si>
     <t>e_Motivo_Text</t>
   </si>
   <si>
@@ -132,9 +138,6 @@
     <t>UAT4</t>
   </si>
   <si>
-    <t>cpontec</t>
-  </si>
-  <si>
     <t>e_Tipo</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
   </si>
   <si>
     <t>Pruebas QA</t>
-  </si>
-  <si>
-    <t>15/03/21</t>
   </si>
   <si>
     <t>e_Estado</t>
@@ -391,20 +391,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
@@ -709,7 +709,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -722,13 +722,13 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s">
         <v>7</v>
       </c>
       <c t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row>
@@ -773,7 +773,7 @@
     <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -791,19 +791,19 @@
         <v>44</v>
       </c>
       <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>34</v>
       </c>
       <c t="s">
         <v>3</v>
@@ -820,19 +820,19 @@
         <v>2</v>
       </c>
       <c s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1">
-        <v>650009808</v>
-      </c>
-      <c s="1" t="s">
-        <v>12</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>22</v>
+        <v>600000186</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
       </c>
       <c s="1" t="s">
         <v>54</v>
@@ -841,15 +841,15 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="7" t="s">
+        <v>24</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -875,47 +875,47 @@
   <cols>
     <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.49609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.03125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>42</v>
       </c>
       <c t="s">
         <v>3</v>
       </c>
       <c t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
+        <v>35</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>35</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
+      <c s="1" t="s">
+        <v>8</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -942,7 +942,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -956,24 +956,24 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s">
         <v>5</v>
       </c>
       <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>14</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c s="8">
-        <v>73125510</v>
+        <v>139449777</v>
       </c>
       <c s="1"/>
       <c s="3"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -1002,12 +1002,12 @@
     <col min="2" max="2" width="9.1484375" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.98828125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.33984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5390625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.328125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1019,19 +1019,19 @@
         <v>44</v>
       </c>
       <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>33</v>
       </c>
       <c t="s">
         <v>30</v>
       </c>
       <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>34</v>
       </c>
       <c t="s">
         <v>3</v>
@@ -1045,33 +1045,33 @@
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1">
-        <v>650009808</v>
+        <v>650006527</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
       </c>
       <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>43</v>
       </c>
       <c s="10" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="7" t="s">
+        <v>31</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>24</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row>
@@ -1128,15 +1128,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s">
         <v>5</v>
@@ -1147,12 +1147,12 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c s="8">
-        <v>73125510</v>
-      </c>
-      <c s="5"/>
+        <v>70987719</v>
+      </c>
+      <c s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,13 +1178,13 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s">
         <v>55</v>
       </c>
       <c t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s">
         <v>49</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1">
         <v>920951680</v>
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1231,27 +1231,27 @@
         <v>50</v>
       </c>
       <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row s="6" customFormat="1">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row s="7" customFormat="1">
       <c s="4" t="s">
         <v>45</v>
       </c>
       <c s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c s="4" t="s">
         <v>51</v>
       </c>
-      <c s="5" t="s">
-        <v>39</v>
+      <c s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
